--- a/Guangzhou_Evergrande_Players.xlsx
+++ b/Guangzhou_Evergrande_Players.xlsx
@@ -397,262 +397,1087 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>位置</v>
+      </c>
+      <c r="B1" t="str">
         <v>号码</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
+        <v>国籍</v>
+      </c>
+      <c r="D1" t="str">
         <v>姓名</v>
+      </c>
+      <c r="E1" t="str">
+        <v>出生日期</v>
+      </c>
+      <c r="F1" t="str">
+        <v>年龄</v>
+      </c>
+      <c r="G1" t="str">
+        <v>身高</v>
+      </c>
+      <c r="H1" t="str">
+        <v>体重</v>
+      </c>
+      <c r="I1" t="str">
+        <v>加盟年份</v>
+      </c>
+      <c r="J1" t="str">
+        <v>前属球队</v>
+      </c>
+      <c r="K1" t="str">
+        <v>身价</v>
+      </c>
+      <c r="L1" t="str">
+        <v>出生地</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>门将</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="str">
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v>阿斯汗 (Askhan)</v>
+      </c>
+      <c r="E3" t="str">
+        <v>2005.01.01</v>
+      </c>
+      <c r="F3" t="str">
+        <v>19</v>
+      </c>
+      <c r="G3" t="str">
+        <v>189</v>
+      </c>
+      <c r="H3" t="str">
+        <v>82</v>
+      </c>
+      <c r="I3" t="str">
+        <v>2023</v>
+      </c>
+      <c r="J3" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="K3" t="str">
+        <v>10k</v>
+      </c>
+      <c r="L3" t="str">
+        <v>内蒙古鄂尔多斯</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="str">
         <v>32</v>
       </c>
-      <c r="B2" t="str">
-        <v>Shenping Huo</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>1</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Askhan</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v>霍深坪 (Huo Shenping)</v>
+      </c>
+      <c r="E4" t="str">
+        <v>2003.11.26</v>
+      </c>
+      <c r="F4" t="str">
+        <v>20</v>
+      </c>
+      <c r="G4" t="str">
+        <v>188</v>
+      </c>
+      <c r="H4" t="str">
+        <v>76</v>
+      </c>
+      <c r="I4" t="str">
+        <v>2021</v>
+      </c>
+      <c r="J4" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="K4" t="str">
+        <v>75k</v>
+      </c>
+      <c r="L4" t="str">
+        <v>河南周口</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="str">
         <v>31</v>
       </c>
-      <c r="B4" t="str">
-        <v>Zitong Wu</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>13</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Jie Wang</v>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v>吴梓桐 (Wu Zitong)</v>
+      </c>
+      <c r="E5" t="str">
+        <v>2007.04.27</v>
+      </c>
+      <c r="F5" t="str">
+        <v>16</v>
+      </c>
+      <c r="G5" t="str">
+        <v>187</v>
+      </c>
+      <c r="H5" t="str">
+        <v>——</v>
+      </c>
+      <c r="I5" t="str">
+        <v>2024</v>
+      </c>
+      <c r="J5" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="K5" t="str">
+        <v>——</v>
+      </c>
+      <c r="L5" t="str">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
+        <v>后卫</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="str">
+        <v>2</v>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v>王文轩 (Wang Wenxuan)</v>
+      </c>
+      <c r="E7" t="str">
+        <v>1999.12.26</v>
+      </c>
+      <c r="F7" t="str">
+        <v>24</v>
+      </c>
+      <c r="G7" t="str">
+        <v>183</v>
+      </c>
+      <c r="H7" t="str">
+        <v>71</v>
+      </c>
+      <c r="I7" t="str">
+        <v>2022</v>
+      </c>
+      <c r="J7" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="K7" t="str">
+        <v>75k</v>
+      </c>
+      <c r="L7" t="str">
+        <v>江西景德镇</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="str">
+        <v>3</v>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v>刘浪舟 (Liu Langzhou)</v>
+      </c>
+      <c r="E8" t="str">
+        <v>2003.01.08</v>
+      </c>
+      <c r="F8" t="str">
+        <v>21</v>
+      </c>
+      <c r="G8" t="str">
+        <v>183</v>
+      </c>
+      <c r="H8" t="str">
+        <v>70</v>
+      </c>
+      <c r="I8" t="str">
+        <v>2023</v>
+      </c>
+      <c r="J8" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="K8" t="str">
+        <v>50k</v>
+      </c>
+      <c r="L8" t="str">
+        <v>江西宜春</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="str">
+        <v>4</v>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <v>陈泉江 (Chen Quanjiang)</v>
+      </c>
+      <c r="E9" t="str">
+        <v>2000.07.10</v>
+      </c>
+      <c r="F9" t="str">
+        <v>23</v>
+      </c>
+      <c r="G9" t="str">
+        <v>175</v>
+      </c>
+      <c r="H9" t="str">
+        <v>70</v>
+      </c>
+      <c r="I9" t="str">
+        <v>2022</v>
+      </c>
+      <c r="J9" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="K9" t="str">
+        <v>25k</v>
+      </c>
+      <c r="L9" t="str">
+        <v>四川达州</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="str">
+        <v>5</v>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v>王世龙 (Wang Shilong)</v>
+      </c>
+      <c r="E10" t="str">
+        <v>2001.03.07</v>
+      </c>
+      <c r="F10" t="str">
+        <v>23</v>
+      </c>
+      <c r="G10" t="str">
+        <v>177</v>
+      </c>
+      <c r="H10" t="str">
+        <v>64</v>
+      </c>
+      <c r="I10" t="str">
+        <v>2020</v>
+      </c>
+      <c r="J10" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="K10" t="str">
+        <v>75k</v>
+      </c>
+      <c r="L10" t="str">
+        <v>山东淄博</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="str">
         <v>8</v>
       </c>
-      <c r="B6" t="str">
-        <v>Rimvydas Sadauskas</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>2</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Wenxuan Wang</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>3</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Langzhou Liu</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>4</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Quanjiang Chen</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>5</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Shilong Wang</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>6</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Yu Hou</v>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <v>里姆维达斯·萨达乌斯卡斯 (Rimvydas Sadauskas)</v>
+      </c>
+      <c r="E11" t="str">
+        <v>1996.07.21</v>
+      </c>
+      <c r="F11" t="str">
+        <v>27</v>
+      </c>
+      <c r="G11" t="str">
+        <v>193</v>
+      </c>
+      <c r="H11" t="str">
+        <v>81</v>
+      </c>
+      <c r="I11" t="str">
+        <v>2024</v>
+      </c>
+      <c r="J11" t="str">
+        <v>希奥利艾足球学院</v>
+      </c>
+      <c r="K11" t="str">
+        <v>300k</v>
+      </c>
+      <c r="L11" t="str">
+        <v>考那斯</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
-        <v>11</v>
-      </c>
       <c r="B12" t="str">
-        <v>Abduwahap Aniwar</v>
+        <v>13</v>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v>王捷 (Wang Jie)</v>
+      </c>
+      <c r="E12" t="str">
+        <v>2006.02.14</v>
+      </c>
+      <c r="F12" t="str">
+        <v>18</v>
+      </c>
+      <c r="G12" t="str">
+        <v>180</v>
+      </c>
+      <c r="H12" t="str">
+        <v>——</v>
+      </c>
+      <c r="I12" t="str">
+        <v>2024</v>
+      </c>
+      <c r="J12" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="K12" t="str">
+        <v>10k</v>
+      </c>
+      <c r="L12" t="str">
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
+        <v>中场</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="str">
+        <v>6</v>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <v>侯煜 (Hou Yu)</v>
+      </c>
+      <c r="E14" t="str">
+        <v>2001.01.31</v>
+      </c>
+      <c r="F14" t="str">
+        <v>23</v>
+      </c>
+      <c r="G14" t="str">
+        <v>180</v>
+      </c>
+      <c r="H14" t="str">
+        <v>65</v>
+      </c>
+      <c r="I14" t="str">
+        <v>2021</v>
+      </c>
+      <c r="J14" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="K14" t="str">
+        <v>75k</v>
+      </c>
+      <c r="L14" t="str">
+        <v>广东梅州</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="str">
+        <v>11</v>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v>阿卜杜瓦哈普-艾尼瓦尔 (Abduwahap Aniwar)</v>
+      </c>
+      <c r="E15" t="str">
+        <v>2000.05.14</v>
+      </c>
+      <c r="F15" t="str">
+        <v>23</v>
+      </c>
+      <c r="G15" t="str">
+        <v>168</v>
+      </c>
+      <c r="H15" t="str">
+        <v>62</v>
+      </c>
+      <c r="I15" t="str">
+        <v>2023</v>
+      </c>
+      <c r="J15" t="str">
+        <v>昆山FC</v>
+      </c>
+      <c r="K15" t="str">
+        <v>50k</v>
+      </c>
+      <c r="L15" t="str">
+        <v>新疆墨玉</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="str">
+        <v>14</v>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v>吴永强 (Wu Yongqiang)</v>
+      </c>
+      <c r="E16" t="str">
+        <v>2006.01.16</v>
+      </c>
+      <c r="F16" t="str">
+        <v>18</v>
+      </c>
+      <c r="G16" t="str">
+        <v>168</v>
+      </c>
+      <c r="H16" t="str">
+        <v>64</v>
+      </c>
+      <c r="I16" t="str">
+        <v>2023</v>
+      </c>
+      <c r="J16" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="K16" t="str">
+        <v>10k</v>
+      </c>
+      <c r="L16" t="str">
+        <v>河南驻马店</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="str">
         <v>15</v>
       </c>
-      <c r="B13" t="str">
-        <v>Bin Xu</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v>徐彬 (Xu Bin)</v>
+      </c>
+      <c r="E17" t="str">
+        <v>2004.05.02</v>
+      </c>
+      <c r="F17" t="str">
+        <v>19</v>
+      </c>
+      <c r="G17" t="str">
+        <v>175</v>
+      </c>
+      <c r="H17" t="str">
+        <v>—</v>
+      </c>
+      <c r="I17" t="str">
+        <v>2023</v>
+      </c>
+      <c r="J17" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="K17" t="str">
+        <v>50k</v>
+      </c>
+      <c r="L17" t="str">
+        <v>湖南益阳</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="str">
+        <v>16</v>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v>张志雄 (Zhang Zhixiong)</v>
+      </c>
+      <c r="E18" t="str">
+        <v>2006.09.27</v>
+      </c>
+      <c r="F18" t="str">
+        <v>17</v>
+      </c>
+      <c r="G18" t="str">
+        <v>174</v>
+      </c>
+      <c r="H18" t="str">
+        <v>—</v>
+      </c>
+      <c r="I18" t="str">
+        <v>2024</v>
+      </c>
+      <c r="J18" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="K18" t="str">
+        <v>—</v>
+      </c>
+      <c r="L18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="str">
+        <v>18</v>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v>廖锦涛 (Liao Jintao)</v>
+      </c>
+      <c r="E19" t="str">
+        <v>2000.02.24</v>
+      </c>
+      <c r="F19" t="str">
+        <v>24</v>
+      </c>
+      <c r="G19" t="str">
+        <v>177</v>
+      </c>
+      <c r="H19" t="str">
+        <v>65</v>
+      </c>
+      <c r="I19" t="str">
+        <v>2023</v>
+      </c>
+      <c r="J19" t="str">
+        <v>昆山FC</v>
+      </c>
+      <c r="K19" t="str">
+        <v>75k</v>
+      </c>
+      <c r="L19" t="str">
+        <v>广东揭阳普宁</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="str">
+        <v>20</v>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v>韩昆达 (Han Kunda)</v>
+      </c>
+      <c r="E20" t="str">
+        <v>2005.03.18</v>
+      </c>
+      <c r="F20" t="str">
+        <v>19</v>
+      </c>
+      <c r="G20" t="str">
+        <v>175</v>
+      </c>
+      <c r="H20" t="str">
+        <v>——</v>
+      </c>
+      <c r="I20" t="str">
+        <v>2024</v>
+      </c>
+      <c r="J20" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="K20" t="str">
+        <v>25k</v>
+      </c>
+      <c r="L20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="str">
+        <v>21</v>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <v>李嘉灏 (Li Jiahao)</v>
+      </c>
+      <c r="E21" t="str">
+        <v>2001.06.22</v>
+      </c>
+      <c r="F21" t="str">
+        <v>22</v>
+      </c>
+      <c r="G21" t="str">
+        <v>170</v>
+      </c>
+      <c r="H21" t="str">
+        <v>63</v>
+      </c>
+      <c r="I21" t="str">
+        <v>2023</v>
+      </c>
+      <c r="J21" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="K21" t="str">
+        <v>10k</v>
+      </c>
+      <c r="L21" t="str">
+        <v>广东广州</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="str">
         <v>23</v>
       </c>
-      <c r="B14" t="str">
-        <v>Dejiang Yang</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>22</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Jiahao Li</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v>杨德江 (Yang Dejiang)</v>
+      </c>
+      <c r="E22" t="str">
+        <v>2004.08.31</v>
+      </c>
+      <c r="F22" t="str">
+        <v>19</v>
+      </c>
+      <c r="G22" t="str">
+        <v>175</v>
+      </c>
+      <c r="H22" t="str">
+        <v>60</v>
+      </c>
+      <c r="I22" t="str">
+        <v>2023</v>
+      </c>
+      <c r="J22" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="K22" t="str">
+        <v>25k</v>
+      </c>
+      <c r="L22" t="str">
+        <v>广东深圳</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="str">
+        <v>26</v>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v>李星贤 (Li Xingxian)</v>
+      </c>
+      <c r="E23" t="str">
+        <v>2005.03.24</v>
+      </c>
+      <c r="F23" t="str">
+        <v>19</v>
+      </c>
+      <c r="G23" t="str">
+        <v>180</v>
+      </c>
+      <c r="H23" t="str">
+        <v>63</v>
+      </c>
+      <c r="I23" t="str">
+        <v>2023</v>
+      </c>
+      <c r="J23" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="K23" t="str">
+        <v>10k</v>
+      </c>
+      <c r="L23" t="str">
+        <v>河南郑州</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="str">
+        <v>27</v>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <v>王俊洋 (Wang Junyang)</v>
+      </c>
+      <c r="E24" t="str">
+        <v>2007.10.02</v>
+      </c>
+      <c r="F24" t="str">
         <v>16</v>
       </c>
-      <c r="B16" t="str">
-        <v>Zhixiong Zhang</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>27</v>
-      </c>
-      <c r="B17" t="str">
-        <v>Junyang Wang</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>18</v>
-      </c>
-      <c r="B18" t="str">
-        <v>Jintao Liao</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
+      <c r="G24" t="str">
+        <v>170</v>
+      </c>
+      <c r="H24" t="str">
+        <v>—</v>
+      </c>
+      <c r="I24" t="str">
+        <v>2024</v>
+      </c>
+      <c r="J24" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="K24" t="str">
+        <v>—</v>
+      </c>
+      <c r="L24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="str">
         <v>28</v>
       </c>
-      <c r="B19" t="str">
-        <v>Juan Peñaloza</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>20</v>
-      </c>
-      <c r="B20" t="str">
-        <v>Kunda Han</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>14</v>
-      </c>
-      <c r="B21" t="str">
-        <v>Yongqiang Wu</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>26</v>
-      </c>
-      <c r="B22" t="str">
-        <v>Xingxian Li</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>7</v>
-      </c>
-      <c r="B23" t="str">
-        <v>Eysajan Kurban</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>21</v>
-      </c>
-      <c r="B24" t="str">
-        <v>Shijie Wang</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>9</v>
-      </c>
-      <c r="B25" t="str">
-        <v>Juan Alegría</v>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <v>胡安·贝尼亚罗萨 (Juan Peñaloza)</v>
+      </c>
+      <c r="E25" t="str">
+        <v>2000.03.03</v>
+      </c>
+      <c r="F25" t="str">
+        <v>24</v>
+      </c>
+      <c r="G25" t="str">
+        <v>171</v>
+      </c>
+      <c r="H25" t="str">
+        <v>74</v>
+      </c>
+      <c r="I25" t="str">
+        <v>2024</v>
+      </c>
+      <c r="J25" t="str">
+        <v>瓦尔米耶拉足球俱乐部</v>
+      </c>
+      <c r="K25" t="str">
+        <v>125k</v>
+      </c>
+      <c r="L25" t="str">
+        <v>基布多</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
+        <v>前锋</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="str">
+        <v>7</v>
+      </c>
+      <c r="C27" t="str">
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <v>艾沙江-库尔班 (Eysajan Kurban)</v>
+      </c>
+      <c r="E27" t="str">
+        <v>2000.01.06</v>
+      </c>
+      <c r="F27" t="str">
+        <v>24</v>
+      </c>
+      <c r="G27" t="str">
+        <v>173</v>
+      </c>
+      <c r="H27" t="str">
+        <v>65</v>
+      </c>
+      <c r="I27" t="str">
+        <v>2024</v>
+      </c>
+      <c r="J27" t="str">
+        <v>浙江FC</v>
+      </c>
+      <c r="K27" t="str">
+        <v>50k</v>
+      </c>
+      <c r="L27" t="str">
+        <v>新疆伊犁</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="str">
+        <v>9</v>
+      </c>
+      <c r="C28" t="str">
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <v>胡安·阿雷格里亚 (Juan Alegría)</v>
+      </c>
+      <c r="E28" t="str">
+        <v>2002.06.06</v>
+      </c>
+      <c r="F28" t="str">
+        <v>22</v>
+      </c>
+      <c r="G28" t="str">
+        <v>178</v>
+      </c>
+      <c r="H28" t="str">
+        <v>—</v>
+      </c>
+      <c r="I28" t="str">
+        <v>2024</v>
+      </c>
+      <c r="J28" t="str">
+        <v>科尔多瓦美洲虎俱乐部</v>
+      </c>
+      <c r="K28" t="str">
+        <v>300k</v>
+      </c>
+      <c r="L28" t="str">
+        <v>伊瓦格</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="str">
+        <v>12</v>
+      </c>
+      <c r="C29" t="str">
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <v>伊斯拉木-亚生 (Islam Yasin)</v>
+      </c>
+      <c r="E29" t="str">
+        <v>2006.09.26</v>
+      </c>
+      <c r="F29" t="str">
         <v>17</v>
       </c>
-      <c r="B26" t="str">
-        <v>Hao Yang</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
+      <c r="G29" t="str">
+        <v>178</v>
+      </c>
+      <c r="H29" t="str">
+        <v>—</v>
+      </c>
+      <c r="I29" t="str">
+        <v>2024</v>
+      </c>
+      <c r="J29" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="K29" t="str">
+        <v>—</v>
+      </c>
+      <c r="L29" t="str">
+        <v>新疆</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="str">
+        <v>17</v>
+      </c>
+      <c r="C30" t="str">
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <v>杨浩 (Yang Hao)</v>
+      </c>
+      <c r="E30" t="str">
+        <v>2004.07.13</v>
+      </c>
+      <c r="F30" t="str">
+        <v>19</v>
+      </c>
+      <c r="G30" t="str">
+        <v>176</v>
+      </c>
+      <c r="H30" t="str">
+        <v>63</v>
+      </c>
+      <c r="I30" t="str">
+        <v>2023</v>
+      </c>
+      <c r="J30" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="K30" t="str">
+        <v>100k</v>
+      </c>
+      <c r="L30" t="str">
+        <v>湖北黄石</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="str">
+        <v>19</v>
+      </c>
+      <c r="C31" t="str">
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <v>吴俊杰 (Wu Junjie)</v>
+      </c>
+      <c r="E31" t="str">
+        <v>2002.02.28</v>
+      </c>
+      <c r="F31" t="str">
+        <v>22</v>
+      </c>
+      <c r="G31" t="str">
+        <v>170</v>
+      </c>
+      <c r="H31" t="str">
+        <v>—</v>
+      </c>
+      <c r="I31" t="str">
+        <v>2023</v>
+      </c>
+      <c r="J31" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="K31" t="str">
+        <v>25k</v>
+      </c>
+      <c r="L31" t="str">
+        <v>安徽合肥</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="str">
+        <v>24</v>
+      </c>
+      <c r="C32" t="str">
+        <v/>
+      </c>
+      <c r="D32" t="str">
+        <v>外力-库尔班 (Weli Qurban)</v>
+      </c>
+      <c r="E32" t="str">
+        <v>2006.02.15</v>
+      </c>
+      <c r="F32" t="str">
+        <v>18</v>
+      </c>
+      <c r="G32" t="str">
+        <v>182</v>
+      </c>
+      <c r="H32" t="str">
+        <v>—</v>
+      </c>
+      <c r="I32" t="str">
+        <v>2024</v>
+      </c>
+      <c r="J32" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="K32" t="str">
+        <v>10k</v>
+      </c>
+      <c r="L32" t="str">
+        <v>新疆</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="str">
         <v>29</v>
       </c>
-      <c r="B27" t="str">
-        <v>Dachi Zhang</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>19</v>
-      </c>
-      <c r="B28" t="str">
-        <v>Junjie Wu</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>24</v>
-      </c>
-      <c r="B29" t="str">
-        <v>Weli Qurban</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>12</v>
-      </c>
-      <c r="B30" t="str">
-        <v>Islam Yasin</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
+      <c r="C33" t="str">
+        <v/>
+      </c>
+      <c r="D33" t="str">
+        <v>张达驰 (Zhang Dachi)</v>
+      </c>
+      <c r="E33" t="str">
+        <v>2002.06.17</v>
+      </c>
+      <c r="F33" t="str">
+        <v>21</v>
+      </c>
+      <c r="G33" t="str">
+        <v>183</v>
+      </c>
+      <c r="H33" t="str">
+        <v>—</v>
+      </c>
+      <c r="I33" t="str">
+        <v>2023</v>
+      </c>
+      <c r="J33" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="K33" t="str">
+        <v>50k</v>
+      </c>
+      <c r="L33" t="str">
+        <v>广东广州</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="str">
         <v>30</v>
       </c>
-      <c r="B31" t="str">
-        <v>Yutao Bai</v>
+      <c r="C34" t="str">
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <v>白余涛 (Bai Yutao)</v>
+      </c>
+      <c r="E34" t="str">
+        <v>2006.12.08</v>
+      </c>
+      <c r="F34" t="str">
+        <v>17</v>
+      </c>
+      <c r="G34" t="str">
+        <v>166</v>
+      </c>
+      <c r="H34" t="str">
+        <v>——</v>
+      </c>
+      <c r="I34" t="str">
+        <v>2024</v>
+      </c>
+      <c r="J34" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="K34" t="str">
+        <v>——</v>
+      </c>
+      <c r="L34" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L34"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Guangzhou_Evergrande_Players.xlsx
+++ b/Guangzhou_Evergrande_Players.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,1068 +416,1225 @@
         <v>姓名</v>
       </c>
       <c r="E1" t="str">
+        <v>英文名</v>
+      </c>
+      <c r="F1" t="str">
         <v>出生日期</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>年龄</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>身高</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>体重</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>加盟年份</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>前属球队</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>身价</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>出生地</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
+    <row r="3">
+      <c r="A3" t="str">
         <v>门将</v>
       </c>
-    </row>
-    <row r="3">
       <c r="B3" t="str">
         <v>1</v>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>中华人民共和国</v>
       </c>
       <c r="D3" t="str">
-        <v>阿斯汗 (Askhan)</v>
+        <v>阿斯汗</v>
       </c>
       <c r="E3" t="str">
+        <v>Askhan</v>
+      </c>
+      <c r="F3" t="str">
         <v>2005.01.01</v>
       </c>
-      <c r="F3" t="str">
+      <c r="G3" t="str">
         <v>19</v>
       </c>
-      <c r="G3" t="str">
+      <c r="H3" t="str">
         <v>189</v>
       </c>
-      <c r="H3" t="str">
+      <c r="I3" t="str">
         <v>82</v>
       </c>
-      <c r="I3" t="str">
+      <c r="J3" t="str">
         <v>2023</v>
       </c>
-      <c r="J3" t="str">
-        <v>青年队</v>
-      </c>
       <c r="K3" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="L3" t="str">
         <v>10k</v>
       </c>
-      <c r="L3" t="str">
+      <c r="M3" t="str">
         <v>内蒙古鄂尔多斯</v>
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <v>门将</v>
+      </c>
       <c r="B4" t="str">
         <v>32</v>
       </c>
       <c r="C4" t="str">
-        <v/>
+        <v>中华人民共和国</v>
       </c>
       <c r="D4" t="str">
-        <v>霍深坪 (Huo Shenping)</v>
+        <v>霍深坪</v>
       </c>
       <c r="E4" t="str">
+        <v>Huo Shenping</v>
+      </c>
+      <c r="F4" t="str">
         <v>2003.11.26</v>
       </c>
-      <c r="F4" t="str">
+      <c r="G4" t="str">
         <v>20</v>
       </c>
-      <c r="G4" t="str">
+      <c r="H4" t="str">
         <v>188</v>
       </c>
-      <c r="H4" t="str">
+      <c r="I4" t="str">
         <v>76</v>
       </c>
-      <c r="I4" t="str">
+      <c r="J4" t="str">
         <v>2021</v>
       </c>
-      <c r="J4" t="str">
-        <v>青年队</v>
-      </c>
       <c r="K4" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="L4" t="str">
         <v>75k</v>
       </c>
-      <c r="L4" t="str">
+      <c r="M4" t="str">
         <v>河南周口</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <v>门将</v>
+      </c>
       <c r="B5" t="str">
         <v>31</v>
       </c>
       <c r="C5" t="str">
+        <v>中华人民共和国</v>
+      </c>
+      <c r="D5" t="str">
+        <v>吴梓桐</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Wu Zitong</v>
+      </c>
+      <c r="F5" t="str">
+        <v>2007.04.27</v>
+      </c>
+      <c r="G5" t="str">
+        <v>16</v>
+      </c>
+      <c r="H5" t="str">
+        <v>187</v>
+      </c>
+      <c r="I5" t="str">
+        <v>——</v>
+      </c>
+      <c r="J5" t="str">
+        <v>2024</v>
+      </c>
+      <c r="K5" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="L5" t="str">
+        <v>——</v>
+      </c>
+      <c r="M5" t="str">
         <v/>
       </c>
-      <c r="D5" t="str">
-        <v>吴梓桐 (Wu Zitong)</v>
-      </c>
-      <c r="E5" t="str">
-        <v>2007.04.27</v>
-      </c>
-      <c r="F5" t="str">
-        <v>16</v>
-      </c>
-      <c r="G5" t="str">
-        <v>187</v>
-      </c>
-      <c r="H5" t="str">
-        <v>——</v>
-      </c>
-      <c r="I5" t="str">
-        <v>2024</v>
-      </c>
-      <c r="J5" t="str">
-        <v>青年队</v>
-      </c>
-      <c r="K5" t="str">
-        <v>——</v>
-      </c>
-      <c r="L5" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
         <v>后卫</v>
       </c>
-    </row>
-    <row r="7">
       <c r="B7" t="str">
         <v>2</v>
       </c>
       <c r="C7" t="str">
-        <v/>
+        <v>中华人民共和国</v>
       </c>
       <c r="D7" t="str">
-        <v>王文轩 (Wang Wenxuan)</v>
+        <v>王文轩</v>
       </c>
       <c r="E7" t="str">
+        <v>Wang Wenxuan</v>
+      </c>
+      <c r="F7" t="str">
         <v>1999.12.26</v>
       </c>
-      <c r="F7" t="str">
+      <c r="G7" t="str">
         <v>24</v>
       </c>
-      <c r="G7" t="str">
+      <c r="H7" t="str">
         <v>183</v>
       </c>
-      <c r="H7" t="str">
+      <c r="I7" t="str">
         <v>71</v>
       </c>
-      <c r="I7" t="str">
+      <c r="J7" t="str">
         <v>2022</v>
       </c>
-      <c r="J7" t="str">
-        <v>青年队</v>
-      </c>
       <c r="K7" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="L7" t="str">
         <v>75k</v>
       </c>
-      <c r="L7" t="str">
+      <c r="M7" t="str">
         <v>江西景德镇</v>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="str">
+        <v>后卫</v>
+      </c>
       <c r="B8" t="str">
         <v>3</v>
       </c>
       <c r="C8" t="str">
-        <v/>
+        <v>中华人民共和国</v>
       </c>
       <c r="D8" t="str">
-        <v>刘浪舟 (Liu Langzhou)</v>
+        <v>刘浪舟</v>
       </c>
       <c r="E8" t="str">
+        <v>Liu Langzhou</v>
+      </c>
+      <c r="F8" t="str">
         <v>2003.01.08</v>
       </c>
-      <c r="F8" t="str">
+      <c r="G8" t="str">
         <v>21</v>
       </c>
-      <c r="G8" t="str">
+      <c r="H8" t="str">
         <v>183</v>
       </c>
-      <c r="H8" t="str">
+      <c r="I8" t="str">
         <v>70</v>
       </c>
-      <c r="I8" t="str">
+      <c r="J8" t="str">
         <v>2023</v>
       </c>
-      <c r="J8" t="str">
-        <v>青年队</v>
-      </c>
       <c r="K8" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="L8" t="str">
         <v>50k</v>
       </c>
-      <c r="L8" t="str">
+      <c r="M8" t="str">
         <v>江西宜春</v>
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="str">
+        <v>后卫</v>
+      </c>
       <c r="B9" t="str">
         <v>4</v>
       </c>
       <c r="C9" t="str">
-        <v/>
+        <v>中华人民共和国</v>
       </c>
       <c r="D9" t="str">
-        <v>陈泉江 (Chen Quanjiang)</v>
+        <v>陈泉江</v>
       </c>
       <c r="E9" t="str">
+        <v>Chen Quanjiang</v>
+      </c>
+      <c r="F9" t="str">
         <v>2000.07.10</v>
       </c>
-      <c r="F9" t="str">
+      <c r="G9" t="str">
         <v>23</v>
       </c>
-      <c r="G9" t="str">
+      <c r="H9" t="str">
         <v>175</v>
       </c>
-      <c r="H9" t="str">
+      <c r="I9" t="str">
         <v>70</v>
       </c>
-      <c r="I9" t="str">
+      <c r="J9" t="str">
         <v>2022</v>
       </c>
-      <c r="J9" t="str">
-        <v>青年队</v>
-      </c>
       <c r="K9" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="L9" t="str">
         <v>25k</v>
       </c>
-      <c r="L9" t="str">
+      <c r="M9" t="str">
         <v>四川达州</v>
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="str">
+        <v>后卫</v>
+      </c>
       <c r="B10" t="str">
         <v>5</v>
       </c>
       <c r="C10" t="str">
-        <v/>
+        <v>中华人民共和国</v>
       </c>
       <c r="D10" t="str">
-        <v>王世龙 (Wang Shilong)</v>
+        <v>王世龙</v>
       </c>
       <c r="E10" t="str">
+        <v>Wang Shilong</v>
+      </c>
+      <c r="F10" t="str">
         <v>2001.03.07</v>
       </c>
-      <c r="F10" t="str">
+      <c r="G10" t="str">
         <v>23</v>
       </c>
-      <c r="G10" t="str">
+      <c r="H10" t="str">
         <v>177</v>
       </c>
-      <c r="H10" t="str">
+      <c r="I10" t="str">
         <v>64</v>
       </c>
-      <c r="I10" t="str">
+      <c r="J10" t="str">
         <v>2020</v>
       </c>
-      <c r="J10" t="str">
-        <v>青年队</v>
-      </c>
       <c r="K10" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="L10" t="str">
         <v>75k</v>
       </c>
-      <c r="L10" t="str">
+      <c r="M10" t="str">
         <v>山东淄博</v>
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="str">
+        <v>后卫</v>
+      </c>
       <c r="B11" t="str">
         <v>8</v>
       </c>
       <c r="C11" t="str">
-        <v/>
+        <v>立陶宛</v>
       </c>
       <c r="D11" t="str">
-        <v>里姆维达斯·萨达乌斯卡斯 (Rimvydas Sadauskas)</v>
+        <v>里姆维达斯·萨达乌斯卡斯</v>
       </c>
       <c r="E11" t="str">
+        <v>Rimvydas Sadauskas</v>
+      </c>
+      <c r="F11" t="str">
         <v>1996.07.21</v>
       </c>
-      <c r="F11" t="str">
+      <c r="G11" t="str">
         <v>27</v>
       </c>
-      <c r="G11" t="str">
+      <c r="H11" t="str">
         <v>193</v>
       </c>
-      <c r="H11" t="str">
+      <c r="I11" t="str">
         <v>81</v>
       </c>
-      <c r="I11" t="str">
+      <c r="J11" t="str">
         <v>2024</v>
       </c>
-      <c r="J11" t="str">
+      <c r="K11" t="str">
         <v>希奥利艾足球学院</v>
       </c>
-      <c r="K11" t="str">
+      <c r="L11" t="str">
         <v>300k</v>
       </c>
-      <c r="L11" t="str">
+      <c r="M11" t="str">
         <v>考那斯</v>
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="str">
+        <v>后卫</v>
+      </c>
       <c r="B12" t="str">
         <v>13</v>
       </c>
       <c r="C12" t="str">
+        <v>中华人民共和国</v>
+      </c>
+      <c r="D12" t="str">
+        <v>王捷</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Wang Jie</v>
+      </c>
+      <c r="F12" t="str">
+        <v>2006.02.14</v>
+      </c>
+      <c r="G12" t="str">
+        <v>18</v>
+      </c>
+      <c r="H12" t="str">
+        <v>180</v>
+      </c>
+      <c r="I12" t="str">
+        <v>——</v>
+      </c>
+      <c r="J12" t="str">
+        <v>2024</v>
+      </c>
+      <c r="K12" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="L12" t="str">
+        <v>10k</v>
+      </c>
+      <c r="M12" t="str">
         <v/>
       </c>
-      <c r="D12" t="str">
-        <v>王捷 (Wang Jie)</v>
-      </c>
-      <c r="E12" t="str">
-        <v>2006.02.14</v>
-      </c>
-      <c r="F12" t="str">
-        <v>18</v>
-      </c>
-      <c r="G12" t="str">
-        <v>180</v>
-      </c>
-      <c r="H12" t="str">
-        <v>——</v>
-      </c>
-      <c r="I12" t="str">
-        <v>2024</v>
-      </c>
-      <c r="J12" t="str">
-        <v>青年队</v>
-      </c>
-      <c r="K12" t="str">
-        <v>10k</v>
-      </c>
-      <c r="L12" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
         <v>中场</v>
       </c>
-    </row>
-    <row r="14">
       <c r="B14" t="str">
         <v>6</v>
       </c>
       <c r="C14" t="str">
-        <v/>
+        <v>中华人民共和国</v>
       </c>
       <c r="D14" t="str">
-        <v>侯煜 (Hou Yu)</v>
+        <v>侯煜</v>
       </c>
       <c r="E14" t="str">
+        <v>Hou Yu</v>
+      </c>
+      <c r="F14" t="str">
         <v>2001.01.31</v>
       </c>
-      <c r="F14" t="str">
+      <c r="G14" t="str">
         <v>23</v>
       </c>
-      <c r="G14" t="str">
+      <c r="H14" t="str">
         <v>180</v>
       </c>
-      <c r="H14" t="str">
+      <c r="I14" t="str">
         <v>65</v>
       </c>
-      <c r="I14" t="str">
+      <c r="J14" t="str">
         <v>2021</v>
       </c>
-      <c r="J14" t="str">
-        <v>青年队</v>
-      </c>
       <c r="K14" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="L14" t="str">
         <v>75k</v>
       </c>
-      <c r="L14" t="str">
+      <c r="M14" t="str">
         <v>广东梅州</v>
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <v>中场</v>
+      </c>
       <c r="B15" t="str">
         <v>11</v>
       </c>
       <c r="C15" t="str">
-        <v/>
+        <v>中华人民共和国</v>
       </c>
       <c r="D15" t="str">
-        <v>阿卜杜瓦哈普-艾尼瓦尔 (Abduwahap Aniwar)</v>
+        <v>阿卜杜瓦哈普-艾尼瓦尔</v>
       </c>
       <c r="E15" t="str">
+        <v>Abduwahap Aniwar</v>
+      </c>
+      <c r="F15" t="str">
         <v>2000.05.14</v>
       </c>
-      <c r="F15" t="str">
+      <c r="G15" t="str">
         <v>23</v>
       </c>
-      <c r="G15" t="str">
+      <c r="H15" t="str">
         <v>168</v>
       </c>
-      <c r="H15" t="str">
+      <c r="I15" t="str">
         <v>62</v>
       </c>
-      <c r="I15" t="str">
+      <c r="J15" t="str">
         <v>2023</v>
       </c>
-      <c r="J15" t="str">
+      <c r="K15" t="str">
         <v>昆山FC</v>
       </c>
-      <c r="K15" t="str">
+      <c r="L15" t="str">
         <v>50k</v>
       </c>
-      <c r="L15" t="str">
+      <c r="M15" t="str">
         <v>新疆墨玉</v>
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="str">
+        <v>中场</v>
+      </c>
       <c r="B16" t="str">
         <v>14</v>
       </c>
       <c r="C16" t="str">
-        <v/>
+        <v>中华人民共和国</v>
       </c>
       <c r="D16" t="str">
-        <v>吴永强 (Wu Yongqiang)</v>
+        <v>吴永强</v>
       </c>
       <c r="E16" t="str">
+        <v>Wu Yongqiang</v>
+      </c>
+      <c r="F16" t="str">
         <v>2006.01.16</v>
       </c>
-      <c r="F16" t="str">
+      <c r="G16" t="str">
         <v>18</v>
       </c>
-      <c r="G16" t="str">
+      <c r="H16" t="str">
         <v>168</v>
       </c>
-      <c r="H16" t="str">
+      <c r="I16" t="str">
         <v>64</v>
       </c>
-      <c r="I16" t="str">
+      <c r="J16" t="str">
         <v>2023</v>
       </c>
-      <c r="J16" t="str">
-        <v>青年队</v>
-      </c>
       <c r="K16" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="L16" t="str">
         <v>10k</v>
       </c>
-      <c r="L16" t="str">
+      <c r="M16" t="str">
         <v>河南驻马店</v>
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="str">
+        <v>中场</v>
+      </c>
       <c r="B17" t="str">
         <v>15</v>
       </c>
       <c r="C17" t="str">
-        <v/>
+        <v>中华人民共和国</v>
       </c>
       <c r="D17" t="str">
-        <v>徐彬 (Xu Bin)</v>
+        <v>徐彬</v>
       </c>
       <c r="E17" t="str">
+        <v>Xu Bin</v>
+      </c>
+      <c r="F17" t="str">
         <v>2004.05.02</v>
       </c>
-      <c r="F17" t="str">
+      <c r="G17" t="str">
         <v>19</v>
       </c>
-      <c r="G17" t="str">
+      <c r="H17" t="str">
         <v>175</v>
       </c>
-      <c r="H17" t="str">
+      <c r="I17" t="str">
         <v>—</v>
       </c>
-      <c r="I17" t="str">
+      <c r="J17" t="str">
         <v>2023</v>
       </c>
-      <c r="J17" t="str">
-        <v>青年队</v>
-      </c>
       <c r="K17" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="L17" t="str">
         <v>50k</v>
       </c>
-      <c r="L17" t="str">
+      <c r="M17" t="str">
         <v>湖南益阳</v>
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="str">
+        <v>中场</v>
+      </c>
       <c r="B18" t="str">
         <v>16</v>
       </c>
       <c r="C18" t="str">
+        <v>中华人民共和国</v>
+      </c>
+      <c r="D18" t="str">
+        <v>张志雄</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Zhang Zhixiong</v>
+      </c>
+      <c r="F18" t="str">
+        <v>2006.09.27</v>
+      </c>
+      <c r="G18" t="str">
+        <v>17</v>
+      </c>
+      <c r="H18" t="str">
+        <v>174</v>
+      </c>
+      <c r="I18" t="str">
+        <v>—</v>
+      </c>
+      <c r="J18" t="str">
+        <v>2024</v>
+      </c>
+      <c r="K18" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="L18" t="str">
+        <v>—</v>
+      </c>
+      <c r="M18" t="str">
         <v/>
       </c>
-      <c r="D18" t="str">
-        <v>张志雄 (Zhang Zhixiong)</v>
-      </c>
-      <c r="E18" t="str">
-        <v>2006.09.27</v>
-      </c>
-      <c r="F18" t="str">
-        <v>17</v>
-      </c>
-      <c r="G18" t="str">
-        <v>174</v>
-      </c>
-      <c r="H18" t="str">
-        <v>—</v>
-      </c>
-      <c r="I18" t="str">
-        <v>2024</v>
-      </c>
-      <c r="J18" t="str">
-        <v>青年队</v>
-      </c>
-      <c r="K18" t="str">
-        <v>—</v>
-      </c>
-      <c r="L18" t="str">
-        <v/>
-      </c>
     </row>
     <row r="19">
+      <c r="A19" t="str">
+        <v>中场</v>
+      </c>
       <c r="B19" t="str">
         <v>18</v>
       </c>
       <c r="C19" t="str">
-        <v/>
+        <v>中华人民共和国</v>
       </c>
       <c r="D19" t="str">
-        <v>廖锦涛 (Liao Jintao)</v>
+        <v>廖锦涛</v>
       </c>
       <c r="E19" t="str">
+        <v>Liao Jintao</v>
+      </c>
+      <c r="F19" t="str">
         <v>2000.02.24</v>
       </c>
-      <c r="F19" t="str">
+      <c r="G19" t="str">
         <v>24</v>
       </c>
-      <c r="G19" t="str">
+      <c r="H19" t="str">
         <v>177</v>
       </c>
-      <c r="H19" t="str">
+      <c r="I19" t="str">
         <v>65</v>
       </c>
-      <c r="I19" t="str">
+      <c r="J19" t="str">
         <v>2023</v>
       </c>
-      <c r="J19" t="str">
+      <c r="K19" t="str">
         <v>昆山FC</v>
       </c>
-      <c r="K19" t="str">
+      <c r="L19" t="str">
         <v>75k</v>
       </c>
-      <c r="L19" t="str">
+      <c r="M19" t="str">
         <v>广东揭阳普宁</v>
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="str">
+        <v>中场</v>
+      </c>
       <c r="B20" t="str">
         <v>20</v>
       </c>
       <c r="C20" t="str">
+        <v>中华人民共和国</v>
+      </c>
+      <c r="D20" t="str">
+        <v>韩昆达</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Han Kunda</v>
+      </c>
+      <c r="F20" t="str">
+        <v>2005.03.18</v>
+      </c>
+      <c r="G20" t="str">
+        <v>19</v>
+      </c>
+      <c r="H20" t="str">
+        <v>175</v>
+      </c>
+      <c r="I20" t="str">
+        <v>——</v>
+      </c>
+      <c r="J20" t="str">
+        <v>2024</v>
+      </c>
+      <c r="K20" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="L20" t="str">
+        <v>25k</v>
+      </c>
+      <c r="M20" t="str">
         <v/>
       </c>
-      <c r="D20" t="str">
-        <v>韩昆达 (Han Kunda)</v>
-      </c>
-      <c r="E20" t="str">
-        <v>2005.03.18</v>
-      </c>
-      <c r="F20" t="str">
-        <v>19</v>
-      </c>
-      <c r="G20" t="str">
-        <v>175</v>
-      </c>
-      <c r="H20" t="str">
-        <v>——</v>
-      </c>
-      <c r="I20" t="str">
-        <v>2024</v>
-      </c>
-      <c r="J20" t="str">
-        <v>青年队</v>
-      </c>
-      <c r="K20" t="str">
-        <v>25k</v>
-      </c>
-      <c r="L20" t="str">
-        <v/>
-      </c>
     </row>
     <row r="21">
+      <c r="A21" t="str">
+        <v>中场</v>
+      </c>
       <c r="B21" t="str">
         <v>21</v>
       </c>
       <c r="C21" t="str">
-        <v/>
+        <v>中华人民共和国</v>
       </c>
       <c r="D21" t="str">
-        <v>李嘉灏 (Li Jiahao)</v>
+        <v>李嘉灏</v>
       </c>
       <c r="E21" t="str">
+        <v>Li Jiahao</v>
+      </c>
+      <c r="F21" t="str">
         <v>2001.06.22</v>
       </c>
-      <c r="F21" t="str">
+      <c r="G21" t="str">
         <v>22</v>
       </c>
-      <c r="G21" t="str">
+      <c r="H21" t="str">
         <v>170</v>
       </c>
-      <c r="H21" t="str">
+      <c r="I21" t="str">
         <v>63</v>
       </c>
-      <c r="I21" t="str">
+      <c r="J21" t="str">
         <v>2023</v>
       </c>
-      <c r="J21" t="str">
-        <v>青年队</v>
-      </c>
       <c r="K21" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="L21" t="str">
         <v>10k</v>
       </c>
-      <c r="L21" t="str">
+      <c r="M21" t="str">
         <v>广东广州</v>
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="str">
+        <v>中场</v>
+      </c>
       <c r="B22" t="str">
         <v>23</v>
       </c>
       <c r="C22" t="str">
-        <v/>
+        <v>中华人民共和国</v>
       </c>
       <c r="D22" t="str">
-        <v>杨德江 (Yang Dejiang)</v>
+        <v>杨德江</v>
       </c>
       <c r="E22" t="str">
+        <v>Yang Dejiang</v>
+      </c>
+      <c r="F22" t="str">
         <v>2004.08.31</v>
       </c>
-      <c r="F22" t="str">
+      <c r="G22" t="str">
         <v>19</v>
       </c>
-      <c r="G22" t="str">
+      <c r="H22" t="str">
         <v>175</v>
       </c>
-      <c r="H22" t="str">
+      <c r="I22" t="str">
         <v>60</v>
       </c>
-      <c r="I22" t="str">
+      <c r="J22" t="str">
         <v>2023</v>
       </c>
-      <c r="J22" t="str">
-        <v>青年队</v>
-      </c>
       <c r="K22" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="L22" t="str">
         <v>25k</v>
       </c>
-      <c r="L22" t="str">
+      <c r="M22" t="str">
         <v>广东深圳</v>
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="str">
+        <v>中场</v>
+      </c>
       <c r="B23" t="str">
         <v>26</v>
       </c>
       <c r="C23" t="str">
-        <v/>
+        <v>中华人民共和国</v>
       </c>
       <c r="D23" t="str">
-        <v>李星贤 (Li Xingxian)</v>
+        <v>李星贤</v>
       </c>
       <c r="E23" t="str">
+        <v>Li Xingxian</v>
+      </c>
+      <c r="F23" t="str">
         <v>2005.03.24</v>
       </c>
-      <c r="F23" t="str">
+      <c r="G23" t="str">
         <v>19</v>
       </c>
-      <c r="G23" t="str">
+      <c r="H23" t="str">
         <v>180</v>
       </c>
-      <c r="H23" t="str">
+      <c r="I23" t="str">
         <v>63</v>
       </c>
-      <c r="I23" t="str">
+      <c r="J23" t="str">
         <v>2023</v>
       </c>
-      <c r="J23" t="str">
-        <v>青年队</v>
-      </c>
       <c r="K23" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="L23" t="str">
         <v>10k</v>
       </c>
-      <c r="L23" t="str">
+      <c r="M23" t="str">
         <v>河南郑州</v>
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="str">
+        <v>中场</v>
+      </c>
       <c r="B24" t="str">
         <v>27</v>
       </c>
       <c r="C24" t="str">
+        <v>中华人民共和国</v>
+      </c>
+      <c r="D24" t="str">
+        <v>王俊洋</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Wang Junyang</v>
+      </c>
+      <c r="F24" t="str">
+        <v>2007.10.02</v>
+      </c>
+      <c r="G24" t="str">
+        <v>16</v>
+      </c>
+      <c r="H24" t="str">
+        <v>170</v>
+      </c>
+      <c r="I24" t="str">
+        <v>—</v>
+      </c>
+      <c r="J24" t="str">
+        <v>2024</v>
+      </c>
+      <c r="K24" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="L24" t="str">
+        <v>—</v>
+      </c>
+      <c r="M24" t="str">
         <v/>
       </c>
-      <c r="D24" t="str">
-        <v>王俊洋 (Wang Junyang)</v>
-      </c>
-      <c r="E24" t="str">
-        <v>2007.10.02</v>
-      </c>
-      <c r="F24" t="str">
-        <v>16</v>
-      </c>
-      <c r="G24" t="str">
-        <v>170</v>
-      </c>
-      <c r="H24" t="str">
-        <v>—</v>
-      </c>
-      <c r="I24" t="str">
-        <v>2024</v>
-      </c>
-      <c r="J24" t="str">
-        <v>青年队</v>
-      </c>
-      <c r="K24" t="str">
-        <v>—</v>
-      </c>
-      <c r="L24" t="str">
-        <v/>
-      </c>
     </row>
     <row r="25">
+      <c r="A25" t="str">
+        <v>中场</v>
+      </c>
       <c r="B25" t="str">
         <v>28</v>
       </c>
       <c r="C25" t="str">
-        <v/>
+        <v>哥伦比亚</v>
       </c>
       <c r="D25" t="str">
-        <v>胡安·贝尼亚罗萨 (Juan Peñaloza)</v>
+        <v>胡安·贝尼亚罗萨</v>
       </c>
       <c r="E25" t="str">
+        <v>Juan Peñaloza</v>
+      </c>
+      <c r="F25" t="str">
         <v>2000.03.03</v>
       </c>
-      <c r="F25" t="str">
+      <c r="G25" t="str">
         <v>24</v>
       </c>
-      <c r="G25" t="str">
+      <c r="H25" t="str">
         <v>171</v>
       </c>
-      <c r="H25" t="str">
+      <c r="I25" t="str">
         <v>74</v>
       </c>
-      <c r="I25" t="str">
+      <c r="J25" t="str">
         <v>2024</v>
       </c>
-      <c r="J25" t="str">
+      <c r="K25" t="str">
         <v>瓦尔米耶拉足球俱乐部</v>
       </c>
-      <c r="K25" t="str">
+      <c r="L25" t="str">
         <v>125k</v>
       </c>
-      <c r="L25" t="str">
+      <c r="M25" t="str">
         <v>基布多</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="str">
+    <row r="27">
+      <c r="A27" t="str">
         <v>前锋</v>
       </c>
-    </row>
-    <row r="27">
       <c r="B27" t="str">
         <v>7</v>
       </c>
       <c r="C27" t="str">
-        <v/>
+        <v>中华人民共和国</v>
       </c>
       <c r="D27" t="str">
-        <v>艾沙江-库尔班 (Eysajan Kurban)</v>
+        <v>艾沙江-库尔班</v>
       </c>
       <c r="E27" t="str">
+        <v>Eysajan Kurban</v>
+      </c>
+      <c r="F27" t="str">
         <v>2000.01.06</v>
       </c>
-      <c r="F27" t="str">
+      <c r="G27" t="str">
         <v>24</v>
       </c>
-      <c r="G27" t="str">
+      <c r="H27" t="str">
         <v>173</v>
       </c>
-      <c r="H27" t="str">
+      <c r="I27" t="str">
         <v>65</v>
       </c>
-      <c r="I27" t="str">
+      <c r="J27" t="str">
         <v>2024</v>
       </c>
-      <c r="J27" t="str">
+      <c r="K27" t="str">
         <v>浙江FC</v>
       </c>
-      <c r="K27" t="str">
+      <c r="L27" t="str">
         <v>50k</v>
       </c>
-      <c r="L27" t="str">
+      <c r="M27" t="str">
         <v>新疆伊犁</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="str">
+        <v>前锋</v>
+      </c>
       <c r="B28" t="str">
         <v>9</v>
       </c>
       <c r="C28" t="str">
-        <v/>
+        <v>哥伦比亚</v>
       </c>
       <c r="D28" t="str">
-        <v>胡安·阿雷格里亚 (Juan Alegría)</v>
+        <v>胡安·阿雷格里亚</v>
       </c>
       <c r="E28" t="str">
+        <v>Juan Alegría</v>
+      </c>
+      <c r="F28" t="str">
         <v>2002.06.06</v>
       </c>
-      <c r="F28" t="str">
+      <c r="G28" t="str">
         <v>22</v>
       </c>
-      <c r="G28" t="str">
+      <c r="H28" t="str">
         <v>178</v>
       </c>
-      <c r="H28" t="str">
+      <c r="I28" t="str">
         <v>—</v>
       </c>
-      <c r="I28" t="str">
+      <c r="J28" t="str">
         <v>2024</v>
       </c>
-      <c r="J28" t="str">
+      <c r="K28" t="str">
         <v>科尔多瓦美洲虎俱乐部</v>
       </c>
-      <c r="K28" t="str">
+      <c r="L28" t="str">
         <v>300k</v>
       </c>
-      <c r="L28" t="str">
+      <c r="M28" t="str">
         <v>伊瓦格</v>
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="str">
+        <v>前锋</v>
+      </c>
       <c r="B29" t="str">
         <v>12</v>
       </c>
       <c r="C29" t="str">
-        <v/>
+        <v>中华人民共和国</v>
       </c>
       <c r="D29" t="str">
-        <v>伊斯拉木-亚生 (Islam Yasin)</v>
+        <v>伊斯拉木-亚生</v>
       </c>
       <c r="E29" t="str">
+        <v>Islam Yasin</v>
+      </c>
+      <c r="F29" t="str">
         <v>2006.09.26</v>
       </c>
-      <c r="F29" t="str">
+      <c r="G29" t="str">
         <v>17</v>
       </c>
-      <c r="G29" t="str">
+      <c r="H29" t="str">
         <v>178</v>
       </c>
-      <c r="H29" t="str">
+      <c r="I29" t="str">
         <v>—</v>
       </c>
-      <c r="I29" t="str">
+      <c r="J29" t="str">
         <v>2024</v>
       </c>
-      <c r="J29" t="str">
-        <v>青年队</v>
-      </c>
       <c r="K29" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="L29" t="str">
         <v>—</v>
       </c>
-      <c r="L29" t="str">
+      <c r="M29" t="str">
         <v>新疆</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="str">
+        <v>前锋</v>
+      </c>
       <c r="B30" t="str">
         <v>17</v>
       </c>
       <c r="C30" t="str">
-        <v/>
+        <v>中华人民共和国</v>
       </c>
       <c r="D30" t="str">
-        <v>杨浩 (Yang Hao)</v>
+        <v>杨浩</v>
       </c>
       <c r="E30" t="str">
+        <v>Yang Hao</v>
+      </c>
+      <c r="F30" t="str">
         <v>2004.07.13</v>
       </c>
-      <c r="F30" t="str">
+      <c r="G30" t="str">
         <v>19</v>
       </c>
-      <c r="G30" t="str">
+      <c r="H30" t="str">
         <v>176</v>
       </c>
-      <c r="H30" t="str">
+      <c r="I30" t="str">
         <v>63</v>
       </c>
-      <c r="I30" t="str">
+      <c r="J30" t="str">
         <v>2023</v>
       </c>
-      <c r="J30" t="str">
-        <v>青年队</v>
-      </c>
       <c r="K30" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="L30" t="str">
         <v>100k</v>
       </c>
-      <c r="L30" t="str">
+      <c r="M30" t="str">
         <v>湖北黄石</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="str">
+        <v>前锋</v>
+      </c>
       <c r="B31" t="str">
         <v>19</v>
       </c>
       <c r="C31" t="str">
-        <v/>
+        <v>中华人民共和国</v>
       </c>
       <c r="D31" t="str">
-        <v>吴俊杰 (Wu Junjie)</v>
+        <v>吴俊杰</v>
       </c>
       <c r="E31" t="str">
+        <v>Wu Junjie</v>
+      </c>
+      <c r="F31" t="str">
         <v>2002.02.28</v>
       </c>
-      <c r="F31" t="str">
+      <c r="G31" t="str">
         <v>22</v>
       </c>
-      <c r="G31" t="str">
+      <c r="H31" t="str">
         <v>170</v>
       </c>
-      <c r="H31" t="str">
+      <c r="I31" t="str">
         <v>—</v>
       </c>
-      <c r="I31" t="str">
+      <c r="J31" t="str">
         <v>2023</v>
       </c>
-      <c r="J31" t="str">
-        <v>青年队</v>
-      </c>
       <c r="K31" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="L31" t="str">
         <v>25k</v>
       </c>
-      <c r="L31" t="str">
+      <c r="M31" t="str">
         <v>安徽合肥</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="str">
+        <v>前锋</v>
+      </c>
       <c r="B32" t="str">
         <v>24</v>
       </c>
       <c r="C32" t="str">
-        <v/>
+        <v>中华人民共和国</v>
       </c>
       <c r="D32" t="str">
-        <v>外力-库尔班 (Weli Qurban)</v>
+        <v>外力-库尔班</v>
       </c>
       <c r="E32" t="str">
+        <v>Weli Qurban</v>
+      </c>
+      <c r="F32" t="str">
         <v>2006.02.15</v>
       </c>
-      <c r="F32" t="str">
+      <c r="G32" t="str">
         <v>18</v>
       </c>
-      <c r="G32" t="str">
+      <c r="H32" t="str">
         <v>182</v>
       </c>
-      <c r="H32" t="str">
+      <c r="I32" t="str">
         <v>—</v>
       </c>
-      <c r="I32" t="str">
+      <c r="J32" t="str">
         <v>2024</v>
       </c>
-      <c r="J32" t="str">
-        <v>青年队</v>
-      </c>
       <c r="K32" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="L32" t="str">
         <v>10k</v>
       </c>
-      <c r="L32" t="str">
+      <c r="M32" t="str">
         <v>新疆</v>
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="str">
+        <v>前锋</v>
+      </c>
       <c r="B33" t="str">
         <v>29</v>
       </c>
       <c r="C33" t="str">
-        <v/>
+        <v>中华人民共和国</v>
       </c>
       <c r="D33" t="str">
-        <v>张达驰 (Zhang Dachi)</v>
+        <v>张达驰</v>
       </c>
       <c r="E33" t="str">
+        <v>Zhang Dachi</v>
+      </c>
+      <c r="F33" t="str">
         <v>2002.06.17</v>
       </c>
-      <c r="F33" t="str">
+      <c r="G33" t="str">
         <v>21</v>
       </c>
-      <c r="G33" t="str">
+      <c r="H33" t="str">
         <v>183</v>
       </c>
-      <c r="H33" t="str">
+      <c r="I33" t="str">
         <v>—</v>
       </c>
-      <c r="I33" t="str">
+      <c r="J33" t="str">
         <v>2023</v>
       </c>
-      <c r="J33" t="str">
-        <v>青年队</v>
-      </c>
       <c r="K33" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="L33" t="str">
         <v>50k</v>
       </c>
-      <c r="L33" t="str">
+      <c r="M33" t="str">
         <v>广东广州</v>
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="str">
+        <v>前锋</v>
+      </c>
       <c r="B34" t="str">
         <v>30</v>
       </c>
       <c r="C34" t="str">
-        <v/>
+        <v>中华人民共和国</v>
       </c>
       <c r="D34" t="str">
-        <v>白余涛 (Bai Yutao)</v>
+        <v>白余涛</v>
       </c>
       <c r="E34" t="str">
+        <v>Bai Yutao</v>
+      </c>
+      <c r="F34" t="str">
         <v>2006.12.08</v>
       </c>
-      <c r="F34" t="str">
+      <c r="G34" t="str">
         <v>17</v>
       </c>
-      <c r="G34" t="str">
+      <c r="H34" t="str">
         <v>166</v>
       </c>
-      <c r="H34" t="str">
+      <c r="I34" t="str">
         <v>——</v>
       </c>
-      <c r="I34" t="str">
+      <c r="J34" t="str">
         <v>2024</v>
       </c>
-      <c r="J34" t="str">
-        <v>青年队</v>
-      </c>
       <c r="K34" t="str">
+        <v>青年队</v>
+      </c>
+      <c r="L34" t="str">
         <v>——</v>
       </c>
-      <c r="L34" t="str">
+      <c r="M34" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L34"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M34"/>
   </ignoredErrors>
 </worksheet>
 </file>